--- a/Batch 2/ft_file.xlsx
+++ b/Batch 2/ft_file.xlsx
@@ -1,33 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Learning-python\Batch 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="4635" windowWidth="15345" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t>CompanyID</t>
+  </si>
+  <si>
+    <t>FeedbackType</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>ARO</t>
+  </si>
+  <si>
+    <t>aqureshi</t>
+  </si>
+  <si>
+    <t>take note</t>
+  </si>
+  <si>
+    <t>IVP01</t>
+  </si>
+  <si>
+    <t>feature adjusted</t>
+  </si>
+  <si>
+    <t>thank you for adjustment</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>svijaya</t>
+  </si>
+  <si>
+    <t>re-research</t>
+  </si>
+  <si>
+    <t>IVF01</t>
+  </si>
+  <si>
+    <t>change company id</t>
+  </si>
+  <si>
+    <t>changes made as suggested</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>CFA</t>
+  </si>
+  <si>
+    <t>pthombre</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>VIF01</t>
+  </si>
+  <si>
+    <t>add missing director, add him to audit committee as well</t>
+  </si>
+  <si>
+    <t>added missing director Mr Anderson, marked audit committee</t>
+  </si>
+  <si>
+    <t>ExrateAnalyst</t>
+  </si>
+  <si>
+    <t>AGSAnalyst</t>
+  </si>
+  <si>
+    <t>ExrateRemark</t>
+  </si>
+  <si>
+    <t>AGSRemark</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +142,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,198 +425,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="12.85546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="13.140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="11.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="14.28515625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="23.5703125"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CompanyID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>InrateAnalyst</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SGAAnalyst</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>FeedbackType</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Indicator</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>InrateRemark</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SGARemark</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1027</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ARO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aqureshi</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>take note</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>IVP01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>feature adjusted</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>thank you for adjustment</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>543</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>svijaya</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>re-research</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>IVF01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>change company id</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>changes made as suggested</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6789</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CFA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>pthombre</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VIF01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>add missing director, add him to audit committee as well</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>added missing director Mr Anderson, marked audit committee</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Batch 2/ft_file.xlsx
+++ b/Batch 2/ft_file.xlsx
@@ -1,132 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Learning-python\Batch 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="4635" windowWidth="15345" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>CompanyID</t>
-  </si>
-  <si>
-    <t>FeedbackType</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>ARO</t>
-  </si>
-  <si>
-    <t>aqureshi</t>
-  </si>
-  <si>
-    <t>take note</t>
-  </si>
-  <si>
-    <t>IVP01</t>
-  </si>
-  <si>
-    <t>feature adjusted</t>
-  </si>
-  <si>
-    <t>thank you for adjustment</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>MAL</t>
-  </si>
-  <si>
-    <t>svijaya</t>
-  </si>
-  <si>
-    <t>re-research</t>
-  </si>
-  <si>
-    <t>IVF01</t>
-  </si>
-  <si>
-    <t>change company id</t>
-  </si>
-  <si>
-    <t>changes made as suggested</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
-    <t>CFA</t>
-  </si>
-  <si>
-    <t>pthombre</t>
-  </si>
-  <si>
-    <t>adjustment</t>
-  </si>
-  <si>
-    <t>VIF01</t>
-  </si>
-  <si>
-    <t>add missing director, add him to audit committee as well</t>
-  </si>
-  <si>
-    <t>added missing director Mr Anderson, marked audit committee</t>
-  </si>
-  <si>
-    <t>ExrateAnalyst</t>
-  </si>
-  <si>
-    <t>AGSAnalyst</t>
-  </si>
-  <si>
-    <t>ExrateRemark</t>
-  </si>
-  <si>
-    <t>AGSRemark</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,24 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -425,130 +317,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="12.85546875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="13.140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="14.28515625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="23.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CompanyID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ExrateAnalyst</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AGSAnalyst</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>FeedbackType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExrateRemark</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AGSRemark</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aqureshi</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>take note</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IVP01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>feature adjusted</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>thank you for adjustment</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>svijaya</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>re-research</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IVF01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>change company id</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>changes made as suggested</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6789</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pthombre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VIF01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>add missing director, check committee info</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>adjusted as required</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AKN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schatterjee</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>take note</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IF01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>i selected product theme as well</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>thanks for selection, you are right</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>